--- a/student.xlsx
+++ b/student.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -34,7 +34,19 @@
     <t xml:space="preserve">school_year</t>
   </si>
   <si>
-    <t xml:space="preserve">sample</t>
+    <t xml:space="preserve">cur_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laurence Bautista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-0699-389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPA</t>
   </si>
 </sst>
 </file>
@@ -49,6 +61,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -130,15 +143,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -154,19 +168,31 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2018</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/student.xlsx
+++ b/student.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">student_no</t>
   </si>
   <si>
-    <t xml:space="preserve">grade</t>
+    <t xml:space="preserve">grade_id</t>
   </si>
   <si>
     <t xml:space="preserve">school_year</t>
@@ -146,12 +146,12 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>

--- a/student.xlsx
+++ b/student.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t xml:space="preserve">SPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael John</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG</t>
   </si>
 </sst>
 </file>
@@ -143,10 +149,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -195,6 +201,26 @@
         <v>98</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1038422</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/student.xlsx
+++ b/student.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">REG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bryan</t>
   </si>
 </sst>
 </file>
@@ -149,10 +152,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -221,6 +224,26 @@
         <v>80</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>5267849</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
